--- a/storage/exports/TERCEROS DIRECCIONES.xlsx
+++ b/storage/exports/TERCEROS DIRECCIONES.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>TipoDeIdentificacion</t>
   </si>
@@ -134,16 +134,19 @@
     <t>Clasificacion_Dian</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>bogota</t>
-  </si>
-  <si>
-    <t>ana</t>
-  </si>
-  <si>
-    <t>macia</t>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Borda</t>
   </si>
   <si>
     <t>Cliente;</t>
@@ -152,7 +155,7 @@
     <t>-1</t>
   </si>
   <si>
-    <t>0000-00-00</t>
+    <t>2018-11-12</t>
   </si>
   <si>
     <t>0</t>
@@ -164,22 +167,10 @@
     <t>Precio 1</t>
   </si>
   <si>
-    <t>2134135</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>cali</t>
-  </si>
-  <si>
-    <t>felipe</t>
-  </si>
-  <si>
-    <t>jimenez</t>
-  </si>
-  <si>
-    <t>24524561</t>
+    <t>Calle 64#5-29.</t>
+  </si>
+  <si>
+    <t>3214536566</t>
   </si>
 </sst>
 </file>
@@ -519,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,8 +557,8 @@
     <col min="37" max="37" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="42" max="42" width="3.427734" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -695,7 +686,7 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>493955</v>
+        <v>1144030406</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -706,82 +697,41 @@
       <c r="G2" t="s">
         <v>42</v>
       </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2">
-        <v>493955</v>
+        <v>12353717</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>50</v>
       </c>
       <c r="AN2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AO2" t="s">
         <v>40</v>
       </c>
       <c r="AP2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>11234234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
         <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3">
-        <v>493955</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/storage/exports/TERCEROS DIRECCIONES.xlsx
+++ b/storage/exports/TERCEROS DIRECCIONES.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>TipoDeIdentificacion</t>
   </si>
@@ -131,7 +131,16 @@
     <t>ZonaDos</t>
   </si>
   <si>
-    <t>Clasificacion_Dian</t>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfonos</t>
+  </si>
+  <si>
+    <t>Ciudad_Direccion</t>
+  </si>
+  <si>
+    <t>Dir_Principal</t>
   </si>
   <si>
     <t>CC</t>
@@ -556,10 +565,10 @@
     <col min="36" max="36" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -680,58 +689,67 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>1144030406</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T2">
         <v>12353717</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AM2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AP2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
